--- a/data/trans_orig/P43E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Habitat-trans_orig.xlsx
@@ -623,19 +623,19 @@
         <v>71583</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55561</v>
+        <v>56496</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88047</v>
+        <v>90559</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1672835607957668</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1298421177053521</v>
+        <v>0.1320268219467903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2057598660112794</v>
+        <v>0.2116289920092184</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +652,19 @@
         <v>356329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>339865</v>
+        <v>337353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>372351</v>
+        <v>371416</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8327164392042332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7942401339887206</v>
+        <v>0.7883710079907817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8701578822946479</v>
+        <v>0.8679731780532098</v>
       </c>
     </row>
     <row r="6">
@@ -714,19 +714,19 @@
         <v>161991</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>139432</v>
+        <v>139587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>185218</v>
+        <v>186215</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2479305817285389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2134038062659399</v>
+        <v>0.2136402621783746</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2834799468983139</v>
+        <v>0.2850062183577749</v>
       </c>
     </row>
     <row r="8">
@@ -743,19 +743,19 @@
         <v>491381</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>468154</v>
+        <v>467157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>513940</v>
+        <v>513785</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7520694182714611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7165200531016861</v>
+        <v>0.714993781642225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7865961937340602</v>
+        <v>0.7863597378216253</v>
       </c>
     </row>
     <row r="9">
@@ -805,19 +805,19 @@
         <v>131691</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111292</v>
+        <v>111831</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153827</v>
+        <v>154279</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2512128130468596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2122995879751955</v>
+        <v>0.2133283713974526</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.293439334011204</v>
+        <v>0.2943028501240584</v>
       </c>
     </row>
     <row r="11">
@@ -834,19 +834,19 @@
         <v>392529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>370393</v>
+        <v>369941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>412928</v>
+        <v>412389</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7487871869531404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7065606659887956</v>
+        <v>0.7056971498759418</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7877004120248045</v>
+        <v>0.7866716286025475</v>
       </c>
     </row>
     <row r="12">
@@ -896,19 +896,19 @@
         <v>152151</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129379</v>
+        <v>131317</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172650</v>
+        <v>175881</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.236434894608037</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2010489593367253</v>
+        <v>0.2040596297964326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2682891232987136</v>
+        <v>0.2733101769609251</v>
       </c>
     </row>
     <row r="14">
@@ -925,19 +925,19 @@
         <v>491370</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>470871</v>
+        <v>467640</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514142</v>
+        <v>512204</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7635651053919631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7317108767012864</v>
+        <v>0.726689823039075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7989510406632747</v>
+        <v>0.7959403702035674</v>
       </c>
     </row>
     <row r="15">
@@ -987,19 +987,19 @@
         <v>517415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>473532</v>
+        <v>478010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>560773</v>
+        <v>559295</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2300619629943266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.210549895992461</v>
+        <v>0.2125407918798269</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2493403090201847</v>
+        <v>0.2486832966956492</v>
       </c>
     </row>
     <row r="17">
@@ -1016,19 +1016,19 @@
         <v>1731610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1688252</v>
+        <v>1689730</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1775493</v>
+        <v>1771015</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7699380370056733</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7506596909798154</v>
+        <v>0.7513167033043509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.789450104007539</v>
+        <v>0.7874592081201731</v>
       </c>
     </row>
     <row r="18">
@@ -1196,19 +1196,19 @@
         <v>40255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30214</v>
+        <v>29038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54284</v>
+        <v>54109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1154142475719073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08662385049700713</v>
+        <v>0.08325405590471746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1556352552207038</v>
+        <v>0.1551319492823982</v>
       </c>
     </row>
     <row r="5">
@@ -1225,19 +1225,19 @@
         <v>308536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>294507</v>
+        <v>294682</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318577</v>
+        <v>319753</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8845857524280927</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8443647447792964</v>
+        <v>0.844868050717601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.913376149502993</v>
+        <v>0.9167459440952825</v>
       </c>
     </row>
     <row r="6">
@@ -1287,19 +1287,19 @@
         <v>96417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79160</v>
+        <v>79589</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116149</v>
+        <v>114352</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1527243430703005</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1253905342872511</v>
+        <v>0.1260687273188009</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1839808902006235</v>
+        <v>0.1811336990785961</v>
       </c>
     </row>
     <row r="8">
@@ -1316,19 +1316,19 @@
         <v>534894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>515162</v>
+        <v>516959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>552151</v>
+        <v>551722</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8472756569296995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8160191097993763</v>
+        <v>0.8188663009214041</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8746094657127488</v>
+        <v>0.8739312726811992</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>87647</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72132</v>
+        <v>71514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106468</v>
+        <v>105576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1772919408758802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1459092196508646</v>
+        <v>0.1446582187742369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2153624676237835</v>
+        <v>0.2135592710575417</v>
       </c>
     </row>
     <row r="11">
@@ -1407,19 +1407,19 @@
         <v>406718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>387897</v>
+        <v>388789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>422233</v>
+        <v>422851</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8227080591241197</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.784637532376217</v>
+        <v>0.7864407289424586</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8540907803491361</v>
+        <v>0.8553417812257632</v>
       </c>
     </row>
     <row r="12">
@@ -1469,19 +1469,19 @@
         <v>128720</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106978</v>
+        <v>108386</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150543</v>
+        <v>151872</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1895144896535201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1575042292935053</v>
+        <v>0.1595768854560641</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2216450116840055</v>
+        <v>0.2236016511549889</v>
       </c>
     </row>
     <row r="14">
@@ -1498,19 +1498,19 @@
         <v>550488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528665</v>
+        <v>527336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>572230</v>
+        <v>570822</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.81048551034648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7783549883159947</v>
+        <v>0.776398348845011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8424957707064948</v>
+        <v>0.8404231145439358</v>
       </c>
     </row>
     <row r="15">
@@ -1560,19 +1560,19 @@
         <v>353039</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>319992</v>
+        <v>317646</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>391374</v>
+        <v>389114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1639238534107192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1485794888341993</v>
+        <v>0.1474904516673259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1817239435170573</v>
+        <v>0.1806743147308115</v>
       </c>
     </row>
     <row r="17">
@@ -1589,19 +1589,19 @@
         <v>1800635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1762300</v>
+        <v>1764560</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1833682</v>
+        <v>1836028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8360761465892808</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8182760564829431</v>
+        <v>0.8193256852691897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.851420511165801</v>
+        <v>0.8525095483326741</v>
       </c>
     </row>
     <row r="18">
@@ -1769,19 +1769,19 @@
         <v>37638</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29380</v>
+        <v>29501</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48080</v>
+        <v>48979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1318596467626838</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1029292818937263</v>
+        <v>0.1033555351724502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1684421736940444</v>
+        <v>0.1715916747880763</v>
       </c>
     </row>
     <row r="5">
@@ -1798,19 +1798,19 @@
         <v>247799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237357</v>
+        <v>236458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>256057</v>
+        <v>255936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8681403532373162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8315578263059555</v>
+        <v>0.8284083252119236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8970707181062736</v>
+        <v>0.8966444648275498</v>
       </c>
     </row>
     <row r="6">
@@ -1860,19 +1860,19 @@
         <v>89468</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76388</v>
+        <v>75644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103423</v>
+        <v>103767</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2117498475205402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1807937958435872</v>
+        <v>0.1790324371257071</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2447788068058401</v>
+        <v>0.2455913024890976</v>
       </c>
     </row>
     <row r="8">
@@ -1889,19 +1889,19 @@
         <v>333049</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>319094</v>
+        <v>318750</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>346129</v>
+        <v>346873</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7882501524794597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7552211931941598</v>
+        <v>0.7544086975109024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8192062041564127</v>
+        <v>0.8209675628742926</v>
       </c>
     </row>
     <row r="9">
@@ -1951,19 +1951,19 @@
         <v>115376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99229</v>
+        <v>99153</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131077</v>
+        <v>131218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3121962945509598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2685034720277291</v>
+        <v>0.268297402769827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.354680834811752</v>
+        <v>0.355062454627535</v>
       </c>
     </row>
     <row r="11">
@@ -1980,19 +1980,19 @@
         <v>254187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238486</v>
+        <v>238345</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>270334</v>
+        <v>270410</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6878037054490401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6453191651882481</v>
+        <v>0.6449375453724651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7314965279722709</v>
+        <v>0.7317025972301731</v>
       </c>
     </row>
     <row r="12">
@@ -2042,19 +2042,19 @@
         <v>152723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>136792</v>
+        <v>134394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>172241</v>
+        <v>170806</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2870748109716285</v>
+        <v>0.2870748109716284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2571298171597811</v>
+        <v>0.2526231200331925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3237628669457622</v>
+        <v>0.3210660664396938</v>
       </c>
     </row>
     <row r="14">
@@ -2071,19 +2071,19 @@
         <v>379273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>359755</v>
+        <v>361190</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>395204</v>
+        <v>397602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7129251890283714</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6762371330542378</v>
+        <v>0.6789339335603061</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.742870182840219</v>
+        <v>0.7473768799668074</v>
       </c>
     </row>
     <row r="15">
@@ -2133,19 +2133,19 @@
         <v>395204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>367196</v>
+        <v>367276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>424733</v>
+        <v>424387</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2455428421916127</v>
+        <v>0.2455428421916128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2281409855702751</v>
+        <v>0.2281909472224918</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2638892117461692</v>
+        <v>0.2636740845077846</v>
       </c>
     </row>
     <row r="17">
@@ -2162,19 +2162,19 @@
         <v>1214309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1184780</v>
+        <v>1185126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1242317</v>
+        <v>1242237</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7544571578083872</v>
+        <v>0.7544571578083874</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.736110788253831</v>
+        <v>0.7363259154922155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7718590144297249</v>
+        <v>0.7718090527775079</v>
       </c>
     </row>
     <row r="18">
